--- a/data/trans_orig/Q25B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q25B01-Habitat-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>13.14227778954018</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>10.52495260970324</v>
+        <v>10.52495260970323</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>20.14479245191166</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>20.62065013801153</v>
+        <v>20.72779608814183</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>22.52619798337254</v>
+        <v>22.55852683144385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19.21390586348253</v>
+        <v>18.87323522198949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20.96680721338484</v>
+        <v>21.08899886811454</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>9.053791883757567</v>
+        <v>9.056855430264669</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>10.99493957011181</v>
+        <v>11.13455335967779</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>11.0293703902462</v>
+        <v>10.73980258661595</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.916079467063174</v>
+        <v>8.829166400780732</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.28012108833318</v>
+        <v>18.31296249774836</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19.79050748310714</v>
+        <v>19.87481218123635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.95907049375555</v>
+        <v>16.80470297481627</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>17.70486263116003</v>
+        <v>17.56372617206096</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>24.95589785864031</v>
+        <v>25.03473921548666</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.23127746394633</v>
+        <v>27.02749189814117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.78146524899017</v>
+        <v>23.64647522446122</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.63169752325907</v>
+        <v>25.85493288408783</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.16484859128325</v>
+        <v>16.02029218571172</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.66569652664557</v>
+        <v>16.72905424582526</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.52392194465446</v>
+        <v>16.1109281021406</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.42222890398284</v>
+        <v>12.64036766985697</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>22.35647560035029</v>
+        <v>22.1792139633577</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23.82124183312779</v>
+        <v>23.8909962145781</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20.61114791115135</v>
+        <v>20.51175062299637</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>21.65180762082806</v>
+        <v>21.4028918716074</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>21.58479744649016</v>
+        <v>21.38787641672626</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>19.93300410367935</v>
+        <v>20.03875610879877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20.21749157596641</v>
+        <v>20.21720472073207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19.44263873456885</v>
+        <v>19.5517014706052</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>9.288471157201675</v>
+        <v>9.252557734586638</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>11.45900771103596</v>
+        <v>11.47258192267822</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>11.29632709539617</v>
+        <v>11.17962470294365</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>11.4210801697862</v>
+        <v>11.34304313824416</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>18.06816702197432</v>
+        <v>17.88792827943703</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.86537867893177</v>
+        <v>18.05093479472954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.70488332951786</v>
+        <v>17.66923940734711</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.97561997161075</v>
+        <v>17.16895653758613</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>25.44016452425529</v>
+        <v>25.27261424110512</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>23.90499420396585</v>
+        <v>23.96346759006869</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24.56593817168222</v>
+        <v>24.59330365471114</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23.5736616939097</v>
+        <v>23.66717689370935</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>12.48218616180046</v>
+        <v>12.53490279962438</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.55949020845584</v>
+        <v>16.87017374739231</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>15.12253255967229</v>
+        <v>14.95863665410058</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>14.69703355338439</v>
+        <v>14.77028306793274</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>21.33931075252359</v>
+        <v>21.23178303711662</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21.05060405964749</v>
+        <v>21.32841301230623</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21.15848150847063</v>
+        <v>20.96376920904178</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>20.05433631354159</v>
+        <v>20.31105341596609</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>20.22237448869172</v>
+        <v>20.13433191815188</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>21.30814325185563</v>
+        <v>21.29768774299626</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21.21642043902186</v>
+        <v>21.15934986497838</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.7320191027372</v>
+        <v>16.69302074116274</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>13.53973652591782</v>
+        <v>13.65841677529882</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.97289799088906</v>
+        <v>12.1703850550589</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.96228460228454</v>
+        <v>10.98045340748257</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>9.330271496136811</v>
+        <v>9.166644833281955</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>19.10964723051331</v>
+        <v>19.13008212038133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18.24489103697921</v>
+        <v>18.27497466243359</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.70464729579916</v>
+        <v>17.79116825364045</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>14.78695765942017</v>
+        <v>14.77246803142136</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.24352559791271</v>
+        <v>24.27082767734874</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>26.84993349561165</v>
+        <v>26.94113286204053</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.03369472000719</v>
+        <v>26.28503281386077</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.36868151559873</v>
+        <v>21.11322646038052</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>20.4097509578506</v>
+        <v>20.30764762212999</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.47756426847564</v>
+        <v>15.64578737134016</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.6182147141657</v>
+        <v>14.65059753423652</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.80636730995696</v>
+        <v>12.78721368427243</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>22.55103844407508</v>
+        <v>22.46735293162386</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22.03416703174004</v>
+        <v>21.89591825749815</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21.27293381367332</v>
+        <v>21.4859005129929</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.0014942058381</v>
+        <v>18.01318041022039</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>19.55331381789</v>
+        <v>19.49279764694069</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>20.87262377536721</v>
+        <v>20.97147824451048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17.64795221938587</v>
+        <v>17.69172008499902</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.68911667061032</v>
+        <v>17.80400317439679</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>11.61522965807572</v>
+        <v>11.45284020817929</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.31338907455368</v>
+        <v>11.49367213165145</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>12.3934904770214</v>
+        <v>12.5981381053226</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>12.06985689981041</v>
+        <v>12.17757131724038</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.14227949969869</v>
+        <v>16.98532432658306</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.89824886285062</v>
+        <v>17.88764418113589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.06275152598084</v>
+        <v>15.94016280611035</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>15.81483950210816</v>
+        <v>15.79522091024502</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.51905596795225</v>
+        <v>23.28845927048761</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>25.18772204008476</v>
+        <v>25.1708586420137</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22.2930960692273</v>
+        <v>22.26457693246983</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21.1183352327612</v>
+        <v>21.05001219189889</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>14.71562941075916</v>
+        <v>14.84392893519724</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.87203731973737</v>
+        <v>14.87496856311199</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>16.30695053271307</v>
+        <v>16.47668002266017</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>14.96076417396792</v>
+        <v>14.99545164417461</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>20.03643387921365</v>
+        <v>20.03675584504774</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20.9960644006852</v>
+        <v>21.05944663383286</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19.27490292506104</v>
+        <v>19.19429633419735</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.06156339191953</v>
+        <v>18.09711376848021</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.2172424411048</v>
+        <v>21.41289457417686</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.07454994726944</v>
+        <v>21.99371966756952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20.38443395249116</v>
+        <v>20.46335378456387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19.58704997457354</v>
+        <v>19.5900292590095</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>11.59858788713487</v>
+        <v>11.59078314957636</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.43753413742431</v>
+        <v>12.42725313662921</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>12.40949625795766</v>
+        <v>12.33810767129846</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.47041565613183</v>
+        <v>11.51750740735894</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>18.74413814316164</v>
+        <v>18.74158074499731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19.24914420616508</v>
+        <v>19.2408168882192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.76633395943307</v>
+        <v>17.84661239887019</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.9347903798229</v>
+        <v>16.9392520078307</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.36552868624295</v>
+        <v>23.47107992882212</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.30099126651498</v>
+        <v>24.24703006013635</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.72632639639552</v>
+        <v>22.82103586617465</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.54754125953756</v>
+        <v>21.65494604548228</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.85221239069861</v>
+        <v>13.70280423409532</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.51757531209368</v>
+        <v>14.60007082367444</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.50432441461162</v>
+        <v>14.36992166997355</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.1933273541332</v>
+        <v>13.19497880367742</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.47459051832728</v>
+        <v>20.42162225816458</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20.97363725144908</v>
+        <v>20.97506188275799</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19.59409607174818</v>
+        <v>19.59425061144594</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>18.40541582527517</v>
+        <v>18.46113828384447</v>
       </c>
     </row>
     <row r="19">
